--- a/xlsx/nfeature: 512, hamming_tolerance: 50, k_knn: 15.xlsx
+++ b/xlsx/nfeature: 512, hamming_tolerance: 50, k_knn: 15.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -428,10 +428,10 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>0.659</v>
+        <v>0.462</v>
       </c>
       <c r="C1" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="D1" t="n">
         <v>0.795</v>
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.099</v>
+        <v>0.864</v>
       </c>
       <c r="C2" t="n">
         <v>0.003</v>
@@ -486,10 +486,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.087</v>
+        <v>0.846</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="D3" t="n">
         <v>0.856</v>
@@ -515,7 +515,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.643</v>
+        <v>0.451</v>
       </c>
       <c r="C4" t="n">
         <v>0.001</v>
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.638</v>
+        <v>0.452</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="D5" t="n">
         <v>0.854</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.874</v>
+        <v>1.228</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="D6" t="n">
-        <v>0.585</v>
+        <v>0.599</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -602,16 +602,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.537</v>
+        <v>1.08</v>
       </c>
       <c r="C7" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="D7" t="n">
-        <v>0.731</v>
+        <v>0.751</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -631,7 +631,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.774</v>
+        <v>1.327</v>
       </c>
       <c r="C8" t="n">
         <v>0.004</v>
@@ -660,16 +660,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.707</v>
+        <v>1.096</v>
       </c>
       <c r="C9" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="D9" t="n">
-        <v>0.701</v>
+        <v>0.73</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6</v>
+        <v>0.867</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -689,25 +689,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.876</v>
+        <v>1.232</v>
       </c>
       <c r="C10" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="D10" t="n">
-        <v>0.751</v>
+        <v>0.734</v>
       </c>
       <c r="E10" t="n">
-        <v>0.467</v>
+        <v>0.867</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tidak Diketahui</t>
+          <t>Muhammad Iqbal Baqi</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Salah</t>
+          <t>Benar</t>
         </is>
       </c>
     </row>
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.006</v>
+        <v>0.831</v>
       </c>
       <c r="C11" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="D11" t="n">
         <v>0.776</v>
@@ -747,10 +747,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.376</v>
+        <v>1.095</v>
       </c>
       <c r="C12" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="D12" t="n">
         <v>0.9340000000000001</v>
@@ -776,13 +776,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.034</v>
+        <v>0.834</v>
       </c>
       <c r="C13" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="D13" t="n">
-        <v>0.792</v>
+        <v>0.791</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -805,7 +805,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.197</v>
+        <v>0.922</v>
       </c>
       <c r="C14" t="n">
         <v>0.003</v>
@@ -834,16 +834,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.204</v>
+        <v>0.952</v>
       </c>
       <c r="C15" t="n">
         <v>0.003</v>
       </c>
       <c r="D15" t="n">
-        <v>0.854</v>
+        <v>0.838</v>
       </c>
       <c r="E15" t="n">
-        <v>0.533</v>
+        <v>0.667</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -863,10 +863,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.982</v>
+        <v>0.761</v>
       </c>
       <c r="C16" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="D16" t="n">
         <v>0.9340000000000001</v>
@@ -892,16 +892,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.962</v>
+        <v>0.702</v>
       </c>
       <c r="C17" t="n">
         <v>0.002</v>
       </c>
       <c r="D17" t="n">
-        <v>0.843</v>
+        <v>0.822</v>
       </c>
       <c r="E17" t="n">
-        <v>0.733</v>
+        <v>0.8</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -921,13 +921,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.424</v>
+        <v>1.025</v>
       </c>
       <c r="C18" t="n">
         <v>0.003</v>
       </c>
       <c r="D18" t="n">
-        <v>0.864</v>
+        <v>0.868</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
@@ -950,7 +950,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.859</v>
+        <v>0.638</v>
       </c>
       <c r="C19" t="n">
         <v>0.002</v>
@@ -979,16 +979,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.285</v>
+        <v>0.982</v>
       </c>
       <c r="C20" t="n">
         <v>0.003</v>
       </c>
       <c r="D20" t="n">
-        <v>0.767</v>
+        <v>0.75</v>
       </c>
       <c r="E20" t="n">
-        <v>0.867</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1008,13 +1008,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.755</v>
+        <v>0.52</v>
       </c>
       <c r="C21" t="n">
         <v>0.002</v>
       </c>
       <c r="D21" t="n">
-        <v>0.783</v>
+        <v>0.781</v>
       </c>
       <c r="E21" t="n">
         <v>0.467</v>
@@ -1037,20 +1037,20 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.389</v>
+        <v>1.112</v>
       </c>
       <c r="C22" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="D22" t="n">
-        <v>0.63</v>
+        <v>0.626</v>
       </c>
       <c r="E22" t="n">
-        <v>0.467</v>
+        <v>0.533</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tidak Diketahui</t>
+          <t>Andrea Ayunove Hutami</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1066,13 +1066,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.375</v>
+        <v>1.075</v>
       </c>
       <c r="C23" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8</v>
+        <v>0.795</v>
       </c>
       <c r="E23" t="n">
         <v>1</v>
@@ -1095,13 +1095,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1.457</v>
+        <v>1.154</v>
       </c>
       <c r="C24" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="D24" t="n">
-        <v>0.888</v>
+        <v>0.882</v>
       </c>
       <c r="E24" t="n">
         <v>0.9330000000000001</v>
@@ -1124,13 +1124,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.455</v>
+        <v>1.213</v>
       </c>
       <c r="C25" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="D25" t="n">
-        <v>0.916</v>
+        <v>0.906</v>
       </c>
       <c r="E25" t="n">
         <v>0.867</v>
@@ -1153,16 +1153,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.276</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="C26" t="n">
         <v>0.003</v>
       </c>
       <c r="D26" t="n">
-        <v>0.501</v>
+        <v>0.489</v>
       </c>
       <c r="E26" t="n">
-        <v>0.733</v>
+        <v>0.8</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.601</v>
+        <v>1.178</v>
       </c>
       <c r="C27" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="D27" t="n">
-        <v>0.908</v>
+        <v>0.904</v>
       </c>
       <c r="E27" t="n">
         <v>0.867</v>
@@ -1211,13 +1211,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.576</v>
+        <v>1.216</v>
       </c>
       <c r="C28" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="D28" t="n">
-        <v>0.905</v>
+        <v>0.898</v>
       </c>
       <c r="E28" t="n">
         <v>0.9330000000000001</v>
@@ -1240,10 +1240,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.049</v>
+        <v>0.88</v>
       </c>
       <c r="C29" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="D29" t="n">
         <v>0.799</v>
@@ -1269,13 +1269,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.495</v>
+        <v>1.179</v>
       </c>
       <c r="C30" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="D30" t="n">
-        <v>0.861</v>
+        <v>0.858</v>
       </c>
       <c r="E30" t="n">
         <v>1</v>
@@ -1298,16 +1298,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.974</v>
+        <v>0.659</v>
       </c>
       <c r="C31" t="n">
         <v>0.002</v>
       </c>
       <c r="D31" t="n">
-        <v>0.779</v>
+        <v>0.783</v>
       </c>
       <c r="E31" t="n">
-        <v>0.4</v>
+        <v>0.333</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1327,13 +1327,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.996</v>
+        <v>0.731</v>
       </c>
       <c r="C32" t="n">
         <v>0.002</v>
       </c>
       <c r="D32" t="n">
-        <v>0.759</v>
+        <v>0.761</v>
       </c>
       <c r="E32" t="n">
         <v>0.267</v>
@@ -1356,25 +1356,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.215</v>
+        <v>1.072</v>
       </c>
       <c r="C33" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="D33" t="n">
-        <v>0.654</v>
+        <v>0.889</v>
       </c>
       <c r="E33" t="n">
-        <v>0.667</v>
+        <v>0.267</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Fanny Yusuf</t>
+          <t>Tidak Diketahui</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Benar</t>
+          <t>Salah</t>
         </is>
       </c>
     </row>
@@ -1385,25 +1385,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1.141</v>
+        <v>1.246</v>
       </c>
       <c r="C34" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="D34" t="n">
-        <v>0.6870000000000001</v>
+        <v>0.823</v>
       </c>
       <c r="E34" t="n">
-        <v>0.667</v>
+        <v>0.467</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Fanny Yusuf</t>
+          <t>Tidak Diketahui</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Benar</t>
+          <t>Salah</t>
         </is>
       </c>
     </row>
@@ -1414,16 +1414,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.592</v>
+        <v>1.252</v>
       </c>
       <c r="C35" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="D35" t="n">
-        <v>0.882</v>
+        <v>0.893</v>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>0.533</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1439,49 +1439,49 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>TO_1.png</t>
+          <t>FY_4.png</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1.296</v>
+        <v>1.159</v>
       </c>
       <c r="C36" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="D36" t="n">
-        <v>0.824</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>0.467</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Tiara Oktavian</t>
+          <t>Tidak Diketahui</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Benar</t>
+          <t>Salah</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>TO_2.png</t>
+          <t>TO_1.png</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.326</v>
+        <v>0.79</v>
       </c>
       <c r="C37" t="n">
         <v>0.003</v>
       </c>
       <c r="D37" t="n">
-        <v>0.83</v>
+        <v>0.792</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9330000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1497,17 +1497,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>TO_3.png</t>
+          <t>TO_2.png</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.216</v>
+        <v>0.928</v>
       </c>
       <c r="C38" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="D38" t="n">
-        <v>0.827</v>
+        <v>0.832</v>
       </c>
       <c r="E38" t="n">
         <v>0.9330000000000001</v>
@@ -1526,49 +1526,49 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>TO_4.png</t>
+          <t>TO_3.png</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1.807</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="C39" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="D39" t="n">
-        <v>0.607</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="E39" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Tidak Diketahui</t>
+          <t>Tiara Oktavian</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Salah</t>
+          <t>Benar</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>TO_5.png</t>
+          <t>TO_4.png</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.295</v>
+        <v>2.069</v>
       </c>
       <c r="C40" t="n">
-        <v>0.003</v>
+        <v>0.007</v>
       </c>
       <c r="D40" t="n">
-        <v>0.82</v>
+        <v>0.447</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1584,17 +1584,17 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>TD_1.png</t>
+          <t>TO_5.png</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>3.481</v>
+        <v>1.952</v>
       </c>
       <c r="C41" t="n">
-        <v>0.004</v>
+        <v>0.006</v>
       </c>
       <c r="D41" t="n">
-        <v>0.424</v>
+        <v>0.463</v>
       </c>
       <c r="E41" t="n">
         <v>0.467</v>
@@ -1606,24 +1606,24 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Benar</t>
+          <t>Salah</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>TD_2.png</t>
+          <t>TD_1.png</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3.849</v>
+        <v>1.487</v>
       </c>
       <c r="C42" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="D42" t="n">
-        <v>0.376</v>
+        <v>0.382</v>
       </c>
       <c r="E42" t="n">
         <v>0.467</v>
@@ -1642,20 +1642,20 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>TD_3.png</t>
+          <t>TD_2.png</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1.463</v>
+        <v>1.474</v>
       </c>
       <c r="C43" t="n">
-        <v>0.003</v>
+        <v>0.005</v>
       </c>
       <c r="D43" t="n">
-        <v>0.723</v>
+        <v>0.362</v>
       </c>
       <c r="E43" t="n">
-        <v>0.267</v>
+        <v>0.4</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1671,20 +1671,20 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>TD_4.png</t>
+          <t>TD_3.png</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1.215</v>
+        <v>1.028</v>
       </c>
       <c r="C44" t="n">
         <v>0.003</v>
       </c>
       <c r="D44" t="n">
-        <v>0.712</v>
+        <v>0.727</v>
       </c>
       <c r="E44" t="n">
-        <v>0.467</v>
+        <v>0.267</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -1692,6 +1692,35 @@
         </is>
       </c>
       <c r="G44" t="inlineStr">
+        <is>
+          <t>Benar</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>TD_4.png</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.969</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.267</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Tidak Diketahui</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
         <is>
           <t>Benar</t>
         </is>
